--- a/datos con adapt/Medicion 20180418 1842 Ag4.xlsx
+++ b/datos con adapt/Medicion 20180418 1842 Ag4.xlsx
@@ -20,12 +20,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t xml:space="preserve">R</t>
   </si>
   <si>
     <t xml:space="preserve">V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4nm</t>
   </si>
 </sst>
 </file>
@@ -35,11 +38,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -55,6 +59,11 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -176,7 +185,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -217,6 +226,7 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -2944,17 +2954,17 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="85836605"/>
-        <c:axId val="905266"/>
+        <c:axId val="89167940"/>
+        <c:axId val="6113504"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="85836605"/>
+        <c:axId val="89167940"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2975,12 +2985,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="905266"/>
+        <c:crossAx val="6113504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="905266"/>
+        <c:axId val="6113504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2995,7 +3005,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3016,7 +3026,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="85836605"/>
+        <c:crossAx val="89167940"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3064,9 +3074,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>281520</xdr:colOff>
+      <xdr:colOff>281160</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>134280</xdr:rowOff>
+      <xdr:rowOff>133920</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3075,7 +3085,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="4120920" y="956160"/>
-        <a:ext cx="5755320" cy="3241800"/>
+        <a:ext cx="5754960" cy="3241440"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3093,10 +3103,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D451"/>
+  <dimension ref="A1:F451"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
+      <selection pane="topLeft" activeCell="F5" activeCellId="0" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3141,6 +3151,9 @@
         <f aca="false">MAX(B2:B451)/MIN(B2:B451)</f>
         <v>1.37514315460698</v>
       </c>
+      <c r="F4" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
